--- a/res_mang_system_124116.xlsx
+++ b/res_mang_system_124116.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Actual work\Code Factory\Project\Resource-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FBF0AA-8221-4B45-9BA5-3EE904F6D291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADB3B12-3B7E-4599-8609-E7B37058230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
   <si>
     <t>Resource_master</t>
   </si>
@@ -115,9 +115,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>status_type_Enum</t>
-  </si>
-  <si>
     <t>Enum</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>Booking</t>
-  </si>
-  <si>
     <t>Col_master</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>status_type</t>
   </si>
   <si>
-    <t>ApprovedBy</t>
-  </si>
-  <si>
     <t>ApprovedAt</t>
   </si>
   <si>
@@ -220,12 +211,6 @@
     <t>Feedback</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -269,6 +254,33 @@
   </si>
   <si>
     <t>User_Master</t>
+  </si>
+  <si>
+    <t>enum(admin,user)</t>
+  </si>
+  <si>
+    <t>enum(male,female)</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>ApprovedBy_ref_user_id</t>
+  </si>
+  <si>
+    <t>Deleted_at</t>
+  </si>
+  <si>
+    <t>--------</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Booking_Master</t>
   </si>
 </sst>
 </file>
@@ -435,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,6 +484,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,8 +720,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{97459063-EE3D-4FA2-8531-DACE9E922EEC}" name="Table10" displayName="Table10" ref="N4:Q8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="N4:Q8" xr:uid="{97459063-EE3D-4FA2-8531-DACE9E922EEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{97459063-EE3D-4FA2-8531-DACE9E922EEC}" name="Table10" displayName="Table10" ref="L4:O8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="L4:O8" xr:uid="{97459063-EE3D-4FA2-8531-DACE9E922EEC}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FDB8A201-B1DD-4B90-8F64-976F0AC841A4}" name="Feedback_id" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{69CFD022-4505-48BB-B53A-3E9BA5A8B315}" name="Type" dataDxfId="8"/>
@@ -718,8 +733,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B19C5E03-283C-41A3-96AE-4AC0ECC132DE}" name="Table102" displayName="Table102" ref="N12:Q15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="N12:Q15" xr:uid="{B19C5E03-283C-41A3-96AE-4AC0ECC132DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B19C5E03-283C-41A3-96AE-4AC0ECC132DE}" name="Table102" displayName="Table102" ref="L12:O15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="L12:O15" xr:uid="{B19C5E03-283C-41A3-96AE-4AC0ECC132DE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B35C8FAB-2D7A-4C5E-9CFF-2DD0F13A6F2C}" name="Col_Nane" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{6564FDF8-B269-43E7-9EAE-2535874AE1D4}" name="Type" dataDxfId="2"/>
@@ -1020,8 +1035,8 @@
   </sheetPr>
   <dimension ref="B1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1029,15 +1044,16 @@
     <col min="1" max="1" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.26953125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="37.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="10.26953125" style="3" customWidth="1"/>
@@ -1058,26 +1074,25 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="G3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="N3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
+      <c r="L3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
@@ -1105,18 +1120,17 @@
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>52</v>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1124,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
         <v>20</v>
@@ -1136,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2">
         <v>5</v>
@@ -1145,17 +1159,16 @@
         <v>7</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>52</v>
+      <c r="L5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1185,17 +1198,17 @@
         <v>10</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>53</v>
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3">
+        <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1224,18 +1237,17 @@
         <v>10</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="N7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>5</v>
+      </c>
       <c r="O7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1243,10 +1255,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -1264,14 +1276,13 @@
         <v>10</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>54</v>
+      <c r="L8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1289,20 +1300,19 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
@@ -1323,31 +1333,30 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
+      <c r="L11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -1358,68 +1367,67 @@
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>64</v>
+      <c r="L12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>63</v>
+      <c r="L13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>2</v>
@@ -1431,38 +1439,37 @@
         <v>4</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>66</v>
+      <c r="L14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="3">
+        <v>5</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4">
         <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
@@ -1471,44 +1478,43 @@
         <v>7</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>70</v>
+      <c r="L15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2">
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1519,23 +1525,23 @@
     </row>
     <row r="17" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I17" s="2">
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>6</v>
@@ -1551,13 +1557,13 @@
     </row>
     <row r="19" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>10</v>
@@ -1566,20 +1572,20 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="20"/>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>10</v>
@@ -1589,7 +1595,7 @@
     </row>
     <row r="21" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -1601,13 +1607,13 @@
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>10</v>
@@ -1617,10 +1623,10 @@
     </row>
     <row r="22" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -1629,10 +1635,10 @@
         <v>7</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -1645,7 +1651,7 @@
     </row>
     <row r="23" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
@@ -1657,13 +1663,13 @@
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>10</v>
@@ -1673,13 +1679,13 @@
     </row>
     <row r="24" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>10</v>
@@ -1689,7 +1695,7 @@
     </row>
     <row r="25" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>6</v>
@@ -1705,44 +1711,44 @@
     </row>
     <row r="26" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I26" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G28" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
